--- a/EXCEL/CSDL.xlsx
+++ b/EXCEL/CSDL.xlsx
@@ -5,23 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xam\htdocs\project_cuoi_ki\quan_li_trung_tam_tieng_anh\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464CAEA1-B530-4530-A49F-2D16989DC77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CA64B3-BE46-4FD6-ACD4-6D1B4A5C7844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{BBECAA62-C4D6-4037-A47B-58219B37E806}"/>
+    <workbookView xWindow="29760" yWindow="3600" windowWidth="18000" windowHeight="9210" firstSheet="1" activeTab="9" xr2:uid="{BBECAA62-C4D6-4037-A47B-58219B37E806}"/>
   </bookViews>
   <sheets>
     <sheet name="vai_tro" sheetId="1" r:id="rId1"/>
     <sheet name="tai_khoan" sheetId="2" r:id="rId2"/>
-    <sheet name="admin" sheetId="3" r:id="rId3"/>
-    <sheet name="giao_vien" sheetId="4" r:id="rId4"/>
-    <sheet name="khoa_hoc" sheetId="5" r:id="rId5"/>
-    <sheet name="hoc_sinh" sheetId="6" r:id="rId6"/>
-    <sheet name="lop" sheetId="8" r:id="rId7"/>
-    <sheet name="bang_diem_cua_lop" sheetId="9" r:id="rId8"/>
-    <sheet name="diem_danh" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId3"/>
+    <sheet name="admin" sheetId="3" r:id="rId4"/>
+    <sheet name="giao_vien" sheetId="4" r:id="rId5"/>
+    <sheet name="khoa_hoc" sheetId="5" r:id="rId6"/>
+    <sheet name="hoc_sinh" sheetId="6" r:id="rId7"/>
+    <sheet name="lop" sheetId="8" r:id="rId8"/>
+    <sheet name="bang_diem_cua_lop" sheetId="9" r:id="rId9"/>
+    <sheet name="diem_danh" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="62">
   <si>
     <t>Tên trường</t>
   </si>
@@ -86,12 +85,6 @@
   </si>
   <si>
     <t>ma_tai_khoan</t>
-  </si>
-  <si>
-    <t>ten_dang_nhap</t>
-  </si>
-  <si>
-    <t>mat_khau</t>
   </si>
   <si>
     <t>TEXT</t>
@@ -740,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -759,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -778,12 +771,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF94257-2DFE-466E-A477-38CE421A00C7}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E224E230-BCA9-427C-A607-123B1ECDF52F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,18 +890,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -832,13 +912,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -849,12 +929,12 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -866,6 +946,18 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EC577F-4254-4F58-851E-9546D3BA9ADB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2363EC9B-E0A0-450C-A8F1-A86D311C9187}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -897,13 +989,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -914,12 +1006,12 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -930,10 +1022,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -941,10 +1033,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -952,7 +1044,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -963,7 +1055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37EF2CBE-607C-4453-BFA4-0D86D8EFAFDA}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -995,13 +1087,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1012,12 +1104,12 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1028,7 +1120,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1039,10 +1131,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1050,7 +1142,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1061,7 +1153,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1072,7 +1164,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1083,7 +1175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682F2B58-58DF-461C-B8B7-7B7CED2A3355}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1115,18 +1207,18 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1137,7 +1229,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1148,10 +1240,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1159,10 +1251,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -1170,7 +1262,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1181,12 +1273,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9092B977-5DAB-45C3-8EF8-301909DBB260}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection sqref="A1:D9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1213,13 +1305,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1230,12 +1322,12 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -1246,7 +1338,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1257,7 +1349,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1268,10 +1360,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1279,18 +1371,18 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1301,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8418D040-2532-4951-ACB0-F9DE0FA034BD}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1333,40 +1425,40 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1377,7 +1469,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -1388,10 +1480,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -1399,10 +1491,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1410,7 +1502,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7A21E4-5425-495E-A6EE-4BD1E409738B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
@@ -1453,149 +1545,62 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF94257-2DFE-466E-A477-38CE421A00C7}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
